--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[모집] 2030 합창단원 모집 (~1/23)</t>
+          <t>[교수학습개발센터] 2023-2 CTL 공모전 모집 안내 ♥최대 50만원 장학금♥</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607617/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607444/artclView.do</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[LINC 3.0 사업] 대기업 현직자 직무특강+채용설명회(선착순 150명)</t>
+          <t>[교수학습개발센터] 2023-2 CTL 공모전 모집 안내 ♥최대 50만원 장학금♥</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,24 +508,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607597/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607363/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>알림</t>
+          <t>모집</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[인문사회 융합인재양성사업] 기후위기대응 융합전공 설명회 안내</t>
+          <t>[교수학습개발센터] 2023-2 CTL 공모전 모집 안내</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607579/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607017/artclView.do</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[우편취급국] 인하대학교우편취급국 근로장학생 모집(~1/26)</t>
+          <t>[교수학습개발센터] 2023-2 CTL 공모전 모집 안내</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,29 +572,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607557/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606874/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>알림</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-2학기 인하 더 배움(비교과) 마일리지 장학금 신청 안내</t>
+          <t>★기한연장[SW중심대학X교수학습개발센터] 2023 챗GPT 활용 학습 노하우 콘텐츠 공모전 (~11.10.까지)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -604,29 +604,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607553/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606643/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>알림</t>
+          <t>모집</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>인하대 발전협력팀 - 천원의 아침밥 사연 모집(기프티콘, 안뇽인덕 달력 증정 🎁 )</t>
+          <t>[공학교육혁신센터] 미래 산업 제품 기획 영상 공모전 &lt;공학 시나리오 플래닝 IF&gt; 참가 모집</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,29 +636,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607547/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606403/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>모집</t>
+          <t>알림</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>개인과외 선생님 구합니다. 중학생 수학 과외 / 용인 수지</t>
+          <t>[인하대학교 국어문화원]제577돌 한글날 공모전 카드뉴스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,29 +668,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607516/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606057/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>모집</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[스마트제조 글로벌인재양성사업] 포틀랜드주립대학교 국제워크샵 안내(1/8(월) 9:00)</t>
+          <t>[LINC 3.0 사업단] 제3회 인천지역 공기업 ESG경영 혁신 아이디어 공모전 참여학생 모집(마감)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607472/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605623/artclView.do</t>
         </is>
       </c>
     </row>
@@ -717,91 +717,91 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[총대의원회] 아태물류학부 학생회는 잘못된 길을 걷고 있습니다.</t>
+          <t>[총대의원회] 총대의원회 명칭변경 공모전 수상•여론조사 상품 당첨자 안내</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606705/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607413/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>알림</t>
+          <t>모집</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[아태물류학부 학생회] 아태물류학부 학생회는 총대의원회가 "잘못된 사실"이라는 표현을 사용한 데에 있어서 전면적으로 부인합니다.</t>
+          <t>[교수학습개발센터] 2023-2 CTL 공모전 모집 안내</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606702/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5607194/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>알림</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>헉! 커피?? 타이어보다 싸다!😲 사범대 10명 추첨🩵</t>
+          <t>[총대의원회] 총대의원회 명칭 개편 공모전 질의에 관하여 답변드립니다.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>482</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606697/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606890/artclView.do</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[총대의원회] 아태물류학부 학생회 입장문에 관해 잘못된 사실이 있어 정정드립니다.</t>
+          <t>[총대의원회] 총대의원회 명칭 변경 공모전 신청 안내</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>326</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606695/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606835/artclView.do</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>미추홀구가족센터 가족희망드림지원사업 배움지도사 모집(끌어올림)</t>
+          <t>[문과대학 메타버스 세계관 창작 공모전]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -860,12 +860,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606691/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606521/artclView.do</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023 글로벌 창업 캡스톤 디자인 프로그램 참가자 모집(내 사업 아이템, 미국에서 먹힐까?)</t>
+          <t>[SW중심대학X교수학습개발센터] 2023 챗GPT 활용 학습 노하우 콘텐츠 공모전 (~11.10.까지)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -892,29 +892,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606682/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606286/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>모집</t>
+          <t>알림</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[대학원생 및 경험자 우대] 보고서 한글(hwp)교정 작업 해주실 분 구합니다. (11/20~21)</t>
+          <t>[인천광역시 심뇌혈관질환 예방관리사업지원단] 2023년 UCC공모전 개최</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -924,556 +924,44 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606676/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605789/artclView.do</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>모집</t>
+          <t>알림</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[중앙선거관리위원회] 제43대 총학생회 대표자선거 입후보자 선거운동원 모집 공고</t>
+          <t>[인천광역시 심뇌혈관질환 예방관리사업지원단] 2023년 UCC공모전 개최</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606661/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[교수학습개발센터] 2023학년도 2학기 학습 컨설팅 프로그램 운영 안내</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606084/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[인하대학교 국어문화원]제577돌 한글날 공모전 카드뉴스</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606057/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9/21(목) 10:30~17시 미추홀구청 환경플랫폼"에코서클"행사부스 진행 1일알바 모집</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606052/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[학술 심포지엄] 인하대학교 개교 70주년 기념 학술 심포지엄</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606040/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>♥[설문조사] 설문 참여하시고 스타벅스 쿠폰 받으세요♥</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5606016/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[총학] 총학생회는 제2의 교육부 사태를 대비하고 있습니다.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>757</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605997/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023년 세종학당 우수학습자 초청 연수 대학생 자원봉사자(이끄미) 모집 안내</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605968/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[모집] 인천시와 함께하는 해양환경보전 대학생 봉사자 모집(~9.19까지)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605965/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>디지털혁신전략센터 학생연구원 모집(8/16까지)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605183/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[프런티어학부대학] P/F &lt;세계시민교육&gt;으로 학점+스펙을 동시에</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605175/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>행정학과 기구표</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605155/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023년 8월 학위수여식 안내</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605146/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>[경영대학 학생회] 23-2 경영대학 학생회 모집</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605130/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023년 2학기 사회과학대 고시반 실원 모집</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605112/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>모집</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[LINC 3.0 사업] 포스코 기업탐방·취업역량강화 프로그램 학생 모집(2차모집 재공지)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605107/artclView.do</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>알림</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>[아이디어뱅크] 오늘은 춘천 봉사활동 희생자 12주기입니다.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605061/artclView.do</t>
+          <t>https://plaza.inha.ac.kr/plazaBbs/plaza/10001/5605351/artclView.do</t>
         </is>
       </c>
     </row>
